--- a/results/dados_sentencas.xlsx
+++ b/results/dados_sentencas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheuslenke/dev/masters/2024-1/sentencas_gpt/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BF5EB6-5F07-B84A-AC96-2727B495797B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD05E5D0-A266-C143-95FD-A80D11689E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="1360" windowWidth="32940" windowHeight="21540" xr2:uid="{4E33445B-CC36-9445-8966-B92CB6496EA0}"/>
   </bookViews>
@@ -7851,7 +7851,7 @@
   <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.3"/>
